--- a/exampleXLSX.xlsx
+++ b/exampleXLSX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="37060" yWindow="1440" windowWidth="25600" windowHeight="16300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>This is a test</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Well, this is unexpected.</t>
   </si>
 </sst>
 </file>
@@ -422,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -447,6 +450,11 @@
       </c>
       <c r="D2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
